--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/emissie/emissie.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/emissie/emissie.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,9 +431,12 @@
         <v>topConceptOf</v>
       </c>
       <c r="J1" t="str">
+        <v>theme</v>
+      </c>
+      <c r="K1" t="str">
         <v>belongsTo</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
@@ -471,6 +474,9 @@
       <c r="K2" t="str">
         <v>null</v>
       </c>
+      <c r="L2" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -506,6 +512,9 @@
       <c r="K3" t="str">
         <v>null</v>
       </c>
+      <c r="L3" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -541,6 +550,9 @@
       <c r="K4" t="str">
         <v>null</v>
       </c>
+      <c r="L4" t="str">
+        <v>null</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -571,9 +583,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J5" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K5" t="str">
+        <v>null</v>
+      </c>
+      <c r="L5" t="str">
         <v>null</v>
       </c>
     </row>
@@ -606,9 +621,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J6" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K6" t="str">
+        <v>null</v>
+      </c>
+      <c r="L6" t="str">
         <v>null</v>
       </c>
     </row>
@@ -641,9 +659,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J7" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K7" t="str">
+        <v>null</v>
+      </c>
+      <c r="L7" t="str">
         <v>null</v>
       </c>
     </row>
@@ -676,9 +697,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J8" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K8" t="str">
+        <v>null</v>
+      </c>
+      <c r="L8" t="str">
         <v>null</v>
       </c>
     </row>
@@ -711,9 +735,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J9" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K9" t="str">
+        <v>null</v>
+      </c>
+      <c r="L9" t="str">
         <v>null</v>
       </c>
     </row>
@@ -746,9 +773,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J10" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K10" t="str">
+        <v>null</v>
+      </c>
+      <c r="L10" t="str">
         <v>null</v>
       </c>
     </row>
@@ -781,9 +811,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J11" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K11" t="str">
+        <v>null</v>
+      </c>
+      <c r="L11" t="str">
         <v>null</v>
       </c>
     </row>
@@ -816,9 +849,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J12" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K12" t="str">
+        <v>null</v>
+      </c>
+      <c r="L12" t="str">
         <v>null</v>
       </c>
     </row>
@@ -851,9 +887,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J13" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K13" t="str">
+        <v>null</v>
+      </c>
+      <c r="L13" t="str">
         <v>null</v>
       </c>
     </row>
@@ -886,9 +925,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J14" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K14" t="str">
+        <v>null</v>
+      </c>
+      <c r="L14" t="str">
         <v>null</v>
       </c>
     </row>
@@ -921,9 +963,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J15" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K15" t="str">
+        <v>null</v>
+      </c>
+      <c r="L15" t="str">
         <v>null</v>
       </c>
     </row>
@@ -956,9 +1001,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J16" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K16" t="str">
+        <v>null</v>
+      </c>
+      <c r="L16" t="str">
         <v>null</v>
       </c>
     </row>
@@ -991,9 +1039,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J17" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K17" t="str">
+        <v>null</v>
+      </c>
+      <c r="L17" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1026,9 +1077,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J18" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K18" t="str">
+        <v>null</v>
+      </c>
+      <c r="L18" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1061,9 +1115,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J19" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K19" t="str">
+        <v>null</v>
+      </c>
+      <c r="L19" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1096,9 +1153,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J20" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K20" t="str">
+        <v>null</v>
+      </c>
+      <c r="L20" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1131,9 +1191,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J21" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K21" t="str">
+        <v>null</v>
+      </c>
+      <c r="L21" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1166,9 +1229,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J22" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K22" t="str">
+        <v>null</v>
+      </c>
+      <c r="L22" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1201,9 +1267,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J23" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K23" t="str">
+        <v>null</v>
+      </c>
+      <c r="L23" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1236,9 +1305,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J24" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K24" t="str">
+        <v>null</v>
+      </c>
+      <c r="L24" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1271,9 +1343,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J25" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K25" t="str">
+        <v>null</v>
+      </c>
+      <c r="L25" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1306,9 +1381,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J26" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K26" t="str">
+        <v>null</v>
+      </c>
+      <c r="L26" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1341,9 +1419,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J27" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K27" t="str">
+        <v>null</v>
+      </c>
+      <c r="L27" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1376,9 +1457,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J28" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K28" t="str">
+        <v>null</v>
+      </c>
+      <c r="L28" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1411,9 +1495,12 @@
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/emissie</v>
       </c>
       <c r="J29" t="str">
-        <v>null</v>
+        <v>http://www.eionet.europa.eu/gemet/concept/2895</v>
       </c>
       <c r="K29" t="str">
+        <v>null</v>
+      </c>
+      <c r="L29" t="str">
         <v>null</v>
       </c>
     </row>
@@ -1446,15 +1533,18 @@
         <v>null</v>
       </c>
       <c r="J30" t="str">
+        <v>null</v>
+      </c>
+      <c r="K30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/dataset/codelijst-emissie</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/concept/emissie/abnormale_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/andere_niet_geleide_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/diffuse_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/doorzet_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/fakkel_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/fugitieve_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/geleide_emissie|https://data.omgeving.vlaanderen.be/id/concept/emissie/lekverliezen|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/abnormalelozing|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/brutolozing|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/geleidelozing|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/grondwater|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/intern|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/irwzi|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/iwzi|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/nettolozing|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/oopw|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/ow_dir|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/ow_indir|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/rwa|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/rwzi|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze/septischmateriaal|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze_imjv/lozend|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze_imjv/oppompend|https://data.omgeving.vlaanderen.be/id/concept/lozingswijze_imjv/transfer</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>